--- a/data/output/Pedido_Semana_06_13022026_tierras_aridos.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_tierras_aridos.xlsx
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>3101010003</t>
@@ -772,234 +772,234 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">5L       </t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>tierras_aridos</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMPO IBERIA, S.L.                                                                                                      </t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>3101010003</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>COMPO SANA UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20L      </t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>tierras_aridos</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMPO IBERIA, S.L.                                                                                                      </t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" hidden="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>3101010003</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>COMPO SANA UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">40L      </t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>tierras_aridos</t>
         </is>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F6" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G6" s="4" t="n">
         <v>15.8</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H6" s="4" t="n">
         <v>6.32</v>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>MANTENER</t>
         </is>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="L4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>173.8</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>104.28</v>
-      </c>
-      <c r="O4" s="7" t="inlineStr">
+      <c r="L6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">COMPO IBERIA, S.L.                                                                                                      </t>
         </is>
       </c>
-      <c r="P4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="8" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>3101010003</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>COMPO SANA UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">80L      </t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>tierras_aridos</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>MANTENER</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>46.26</v>
-      </c>
-      <c r="O5" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COMPO IBERIA, S.L.                                                                                                      </t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>3101010003</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>COMPO SANA UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5L       </t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>tierras_aridos</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>MANTENER</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="O6" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COMPO IBERIA, S.L.                                                                                                      </t>
-        </is>
-      </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" hidden="1">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t xml:space="preserve">80L      </t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -1029,13 +1029,13 @@
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>25.7</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>3.92</v>
+        <v>10.28</v>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="K7" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="P7" s="3" t="n">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="3" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>3102010001</t>
@@ -1132,13 +1132,13 @@
         <v>5</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>230.85</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>138.51</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
@@ -1146,25 +1146,25 @@
         </is>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>3102050001</t>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">50L      </t>
+          <t xml:space="preserve">20L      </t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1194,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>23.03</v>
+        <v>11.2</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>4.48</v>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
@@ -1216,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>46.05</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>27.63</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="inlineStr">
         <is>
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" hidden="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t xml:space="preserve">50L      </t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1275,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.2</v>
+        <v>23.03</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>4.48</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="P10" s="3" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="3" t="n">
         <v>0</v>
@@ -1317,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>3102060001</t>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>30.3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="inlineStr">
         <is>
@@ -1389,25 +1389,25 @@
         </is>
       </c>
       <c r="P11" s="3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="R11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U11" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" hidden="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>3102100001</t>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>87.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>52.44</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
@@ -1470,25 +1470,25 @@
         </is>
       </c>
       <c r="P12" s="3" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>3202030003</t>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>28.1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>16.86</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" hidden="1">
@@ -1618,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>3203050027</t>
@@ -1699,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>11.22</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="P15" s="3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="U15" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>3203050019</t>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>3101010007</t>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>1</v>
       </c>
       <c r="U19" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>3102060004</t>
@@ -2107,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>50.7</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>30.42</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -2133,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" hidden="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>3102060005</t>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">40L      </t>
+          <t xml:space="preserve">20L      </t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -2163,13 +2163,13 @@
         </is>
       </c>
       <c r="F21" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>8.75</v>
+        <v>7.55</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>3.5</v>
+        <v>3.02</v>
       </c>
       <c r="I21" s="5" t="inlineStr">
         <is>
@@ -2182,16 +2182,16 @@
         </is>
       </c>
       <c r="K21" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>78.75</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>47.25</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="inlineStr">
         <is>
@@ -2199,22 +2199,22 @@
         </is>
       </c>
       <c r="P21" s="3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" hidden="1">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t xml:space="preserve">40L      </t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -2244,27 +2244,27 @@
         </is>
       </c>
       <c r="F22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="H22" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="I22" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>MANTENER</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="L22" s="3" t="n">
         <v>0</v>
       </c>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P22" s="3" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="3" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>3103040002</t>
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="inlineStr">
         <is>
@@ -2361,25 +2361,25 @@
         </is>
       </c>
       <c r="P23" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>3203040001</t>
@@ -2428,13 +2428,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>7.45</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>4.47</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="inlineStr">
         <is>
@@ -2442,184 +2442,184 @@
         </is>
       </c>
       <c r="P24" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U24" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" hidden="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>3101010005</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20L      </t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>tierras_aridos</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="L25" s="3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U25" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>3101010005</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">50L      </t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>tierras_aridos</t>
         </is>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F26" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G26" s="4" t="n">
         <v>8.85</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H26" s="4" t="n">
         <v>3.54</v>
       </c>
-      <c r="I25" s="5" t="inlineStr">
+      <c r="I26" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>MANTENER</t>
         </is>
       </c>
-      <c r="K25" s="3" t="n">
+      <c r="K26" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="L25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <v>177</v>
-      </c>
-      <c r="N25" s="4" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="O25" s="7" t="inlineStr">
+      <c r="L26" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
         </is>
       </c>
-      <c r="P25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="R25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="2" t="n">
+      <c r="P26" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="T25" s="3" t="n">
+      <c r="T26" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="U25" s="8" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>3101010005</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">70L      </t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>tierras_aridos</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G26" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H26" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>MANTENER</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6" t="n">
-        <v>118</v>
-      </c>
-      <c r="N26" s="4" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="O26" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
-        </is>
-      </c>
-      <c r="P26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="R26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="U26" s="8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" hidden="1">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t xml:space="preserve">70L      </t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -2649,13 +2649,13 @@
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>3.67</v>
+        <v>11.8</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>1.47</v>
+        <v>4.72</v>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="K27" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" s="3" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="3" t="n">
         <v>0</v>
@@ -2694,16 +2694,16 @@
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U27" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>3102060002</t>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>18.54</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="inlineStr">
         <is>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="P28" s="3" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="U28" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>3102080001</t>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>30.24</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>3102110003</t>
@@ -2914,13 +2914,13 @@
         <v>2</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>58.6</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>35.16</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2928,25 +2928,25 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>3202030004</t>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>31.85</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>19.11</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3009,25 +3009,25 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>3202030005</t>
@@ -3076,13 +3076,13 @@
         <v>2</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>32.85</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>19.71</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="inlineStr">
         <is>
@@ -3090,25 +3090,25 @@
         </is>
       </c>
       <c r="P32" s="3" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T32" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>3202030006</t>
@@ -3160,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>31.3</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>18.78</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3171,25 +3171,25 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Q33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="R33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T33" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>3203030002</t>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>22.65</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>13.59</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="C38" s="5" t="n">
-        <v>152</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>1446.10€</t>
+          <t>36.60€</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
